--- a/hecCalc/2023/documentum/Total BOQ_20230920_STB.xlsx
+++ b/hecCalc/2023/documentum/Total BOQ_20230920_STB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\hecCalc\2023\documentum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCA9A5B-2BE6-484F-B582-BE4A99AAD671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4982FF3B-2885-4BC6-AA97-2C76654C5055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15990" xr2:uid="{D46DD879-F62C-4FF3-8272-253F3C610267}"/>
   </bookViews>
@@ -1788,7 +1788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="204">
   <si>
     <t>BOQ</t>
   </si>
@@ -2549,6 +2549,21 @@
   </si>
   <si>
     <t>S04AA024-00001</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>TON</t>
   </si>
 </sst>
 </file>
@@ -37979,8 +37994,8 @@
   </sheetPr>
   <dimension ref="A1:K245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -38183,7 +38198,9 @@
         <v>49</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13">
         <v>5112.2929999999997</v>
@@ -38206,7 +38223,9 @@
         <v>53</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13">
         <v>3869.5650000000001</v>
@@ -38229,7 +38248,9 @@
         <v>57</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13">
         <v>1242.7260000000001</v>
@@ -38252,7 +38273,9 @@
         <v>61</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13">
         <v>299.52300000000002</v>
@@ -38275,7 +38298,9 @@
         <v>65</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13">
         <v>299.52300000000002</v>
@@ -38298,7 +38323,9 @@
         <v>69</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13">
         <v>1996.848</v>
@@ -38414,7 +38441,9 @@
         <v>73</v>
       </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13">
         <v>1690</v>
@@ -38516,7 +38545,9 @@
         <v>73</v>
       </c>
       <c r="F26" s="11"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13">
         <v>169</v>
@@ -38619,7 +38650,9 @@
         <v>79</v>
       </c>
       <c r="F31" s="11"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13">
         <v>83.063999999999993</v>
@@ -38642,7 +38675,9 @@
         <v>79</v>
       </c>
       <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13">
         <v>812.27499999999998</v>
@@ -38665,7 +38700,9 @@
         <v>85</v>
       </c>
       <c r="F33" s="11"/>
-      <c r="G33" s="10"/>
+      <c r="G33" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13">
         <v>199.68899999999999</v>
@@ -38686,7 +38723,9 @@
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="10"/>
+      <c r="G34" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13">
         <v>1308.442</v>
@@ -38709,7 +38748,9 @@
         <v>92</v>
       </c>
       <c r="F35" s="11"/>
-      <c r="G35" s="10"/>
+      <c r="G35" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13">
         <v>123.92100000000001</v>
@@ -38837,7 +38878,9 @@
         <v>95</v>
       </c>
       <c r="F43" s="11"/>
-      <c r="G43" s="10"/>
+      <c r="G43" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13">
         <v>314.5</v>
@@ -38860,7 +38903,9 @@
         <v>92</v>
       </c>
       <c r="F44" s="11"/>
-      <c r="G44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13">
         <v>37.74</v>
@@ -38883,7 +38928,9 @@
         <v>99</v>
       </c>
       <c r="F45" s="11"/>
-      <c r="G45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13">
         <v>314.5</v>
@@ -38906,7 +38953,9 @@
         <v>103</v>
       </c>
       <c r="F46" s="11"/>
-      <c r="G46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13">
         <v>122</v>
@@ -39047,7 +39096,9 @@
         <v>79</v>
       </c>
       <c r="F55" s="11"/>
-      <c r="G55" s="10"/>
+      <c r="G55" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13">
         <v>350.50400000000002</v>
@@ -39068,7 +39119,9 @@
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="11"/>
-      <c r="G56" s="10"/>
+      <c r="G56" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13">
         <v>152.26</v>
@@ -39091,7 +39144,9 @@
         <v>92</v>
       </c>
       <c r="F57" s="11"/>
-      <c r="G57" s="10"/>
+      <c r="G57" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="H57" s="13"/>
       <c r="I57" s="13">
         <v>40.896000000000001</v>
@@ -39243,7 +39298,9 @@
         <v>109</v>
       </c>
       <c r="F67" s="11"/>
-      <c r="G67" s="10"/>
+      <c r="G67" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13">
         <v>2026.82</v>
@@ -39266,7 +39323,9 @@
         <v>113</v>
       </c>
       <c r="F68" s="11"/>
-      <c r="G68" s="10"/>
+      <c r="G68" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H68" s="13"/>
       <c r="I68" s="13">
         <v>872.02800000000002</v>
@@ -39289,7 +39348,9 @@
         <v>117</v>
       </c>
       <c r="F69" s="11"/>
-      <c r="G69" s="10"/>
+      <c r="G69" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H69" s="13"/>
       <c r="I69" s="13">
         <v>872.02800000000002</v>
@@ -39379,7 +39440,9 @@
         <v>121</v>
       </c>
       <c r="F73" s="11"/>
-      <c r="G73" s="10"/>
+      <c r="G73" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H73" s="13"/>
       <c r="I73" s="13">
         <v>284.745</v>
@@ -39402,7 +39465,9 @@
         <v>124</v>
       </c>
       <c r="F74" s="11"/>
-      <c r="G74" s="10"/>
+      <c r="G74" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H74" s="13"/>
       <c r="I74" s="13">
         <v>284.745</v>
@@ -39425,7 +39490,9 @@
         <v>121</v>
       </c>
       <c r="F75" s="11"/>
-      <c r="G75" s="10"/>
+      <c r="G75" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H75" s="13"/>
       <c r="I75" s="13">
         <v>284.745</v>
@@ -39527,7 +39594,9 @@
         <v>130</v>
       </c>
       <c r="F81" s="11"/>
-      <c r="G81" s="10"/>
+      <c r="G81" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H81" s="13"/>
       <c r="I81" s="13">
         <v>311.20499999999998</v>
@@ -39550,7 +39619,9 @@
         <v>133</v>
       </c>
       <c r="F82" s="11"/>
-      <c r="G82" s="10"/>
+      <c r="G82" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H82" s="13"/>
       <c r="I82" s="13">
         <v>284.745</v>
@@ -39573,7 +39644,9 @@
         <v>136</v>
       </c>
       <c r="F83" s="11"/>
-      <c r="G83" s="10"/>
+      <c r="G83" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H83" s="13"/>
       <c r="I83" s="13">
         <v>590.62800000000004</v>
@@ -40172,7 +40245,9 @@
         <v>140</v>
       </c>
       <c r="F124" s="11"/>
-      <c r="G124" s="10"/>
+      <c r="G124" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="H124" s="13"/>
       <c r="I124" s="13">
         <v>1</v>
@@ -40195,7 +40270,9 @@
         <v>144</v>
       </c>
       <c r="F125" s="11"/>
-      <c r="G125" s="10"/>
+      <c r="G125" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="H125" s="13"/>
       <c r="I125" s="13">
         <v>1</v>
@@ -40218,7 +40295,9 @@
         <v>148</v>
       </c>
       <c r="F126" s="11"/>
-      <c r="G126" s="10"/>
+      <c r="G126" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="H126" s="13"/>
       <c r="I126" s="13">
         <v>28</v>
@@ -40500,7 +40579,9 @@
         <v>150</v>
       </c>
       <c r="F146" s="11"/>
-      <c r="G146" s="10"/>
+      <c r="G146" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H146" s="13"/>
       <c r="I146" s="13">
         <v>590.62800000000004</v>
@@ -40523,7 +40604,9 @@
         <v>152</v>
       </c>
       <c r="F147" s="11"/>
-      <c r="G147" s="10"/>
+      <c r="G147" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H147" s="13"/>
       <c r="I147" s="13">
         <v>590.62800000000004</v>
@@ -40716,7 +40799,9 @@
         <v>156</v>
       </c>
       <c r="F160" s="11"/>
-      <c r="G160" s="10"/>
+      <c r="G160" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H160" s="13"/>
       <c r="I160" s="13">
         <v>284.745</v>
@@ -40739,7 +40824,9 @@
         <v>159</v>
       </c>
       <c r="F161" s="11"/>
-      <c r="G161" s="10"/>
+      <c r="G161" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H161" s="13"/>
       <c r="I161" s="13">
         <v>284.745</v>
@@ -41286,7 +41373,9 @@
         <v>163</v>
       </c>
       <c r="F198" s="11"/>
-      <c r="G198" s="10"/>
+      <c r="G198" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H198" s="13"/>
       <c r="I198" s="13">
         <v>4623.2129999999997</v>
@@ -41309,7 +41398,9 @@
         <v>124</v>
       </c>
       <c r="F199" s="11"/>
-      <c r="G199" s="10"/>
+      <c r="G199" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H199" s="13"/>
       <c r="I199" s="13">
         <v>1506.126</v>
@@ -41464,7 +41555,9 @@
         <v>169</v>
       </c>
       <c r="F208" s="11"/>
-      <c r="G208" s="10"/>
+      <c r="G208" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="H208" s="13"/>
       <c r="I208" s="13">
         <v>79.81</v>
@@ -41487,7 +41580,9 @@
         <v>172</v>
       </c>
       <c r="F209" s="11"/>
-      <c r="G209" s="10"/>
+      <c r="G209" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="H209" s="13"/>
       <c r="I209" s="13">
         <v>405.01600000000002</v>
@@ -41510,7 +41605,9 @@
         <v>175</v>
       </c>
       <c r="F210" s="11"/>
-      <c r="G210" s="10"/>
+      <c r="G210" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="H210" s="13"/>
       <c r="I210" s="13">
         <v>19.542000000000002</v>
@@ -41531,7 +41628,9 @@
       </c>
       <c r="E211" s="12"/>
       <c r="F211" s="11"/>
-      <c r="G211" s="10"/>
+      <c r="G211" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H211" s="13"/>
       <c r="I211" s="13">
         <v>11044.798000000001</v>
@@ -41673,7 +41772,9 @@
         <v>182</v>
       </c>
       <c r="F219" s="11"/>
-      <c r="G219" s="10"/>
+      <c r="G219" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H219" s="13"/>
       <c r="I219" s="13">
         <v>71.656000000000006</v>
@@ -41696,7 +41797,9 @@
         <v>186</v>
       </c>
       <c r="F220" s="11"/>
-      <c r="G220" s="10"/>
+      <c r="G220" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="H220" s="13"/>
       <c r="I220" s="13">
         <v>53.207999999999998</v>
@@ -41719,7 +41822,9 @@
         <v>189</v>
       </c>
       <c r="F221" s="11"/>
-      <c r="G221" s="10"/>
+      <c r="G221" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H221" s="13"/>
       <c r="I221" s="13">
         <v>590.62800000000004</v>
@@ -41887,7 +41992,9 @@
         <v>169</v>
       </c>
       <c r="F231" s="11"/>
-      <c r="G231" s="10"/>
+      <c r="G231" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="H231" s="13"/>
       <c r="I231" s="13">
         <v>79.81</v>
@@ -41910,7 +42017,9 @@
         <v>172</v>
       </c>
       <c r="F232" s="11"/>
-      <c r="G232" s="10"/>
+      <c r="G232" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="H232" s="13"/>
       <c r="I232" s="13">
         <v>405.01600000000002</v>
@@ -41933,7 +42042,9 @@
         <v>175</v>
       </c>
       <c r="F233" s="11"/>
-      <c r="G233" s="10"/>
+      <c r="G233" s="10" t="s">
+        <v>203</v>
+      </c>
       <c r="H233" s="13"/>
       <c r="I233" s="13">
         <v>19.542000000000002</v>
@@ -42075,7 +42186,9 @@
         <v>182</v>
       </c>
       <c r="F241" s="11"/>
-      <c r="G241" s="10"/>
+      <c r="G241" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H241" s="13"/>
       <c r="I241" s="13">
         <v>71.656000000000006</v>
@@ -42098,7 +42211,9 @@
         <v>186</v>
       </c>
       <c r="F242" s="11"/>
-      <c r="G242" s="10"/>
+      <c r="G242" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="H242" s="13"/>
       <c r="I242" s="13">
         <v>53.207999999999998</v>
@@ -42121,7 +42236,9 @@
         <v>189</v>
       </c>
       <c r="F243" s="11"/>
-      <c r="G243" s="10"/>
+      <c r="G243" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H243" s="13"/>
       <c r="I243" s="13">
         <v>590.62800000000004</v>
